--- a/BaoCao/CPKDL_Báo cáo tiến độ.xlsx
+++ b/BaoCao/CPKDL_Báo cáo tiến độ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cpkld-movie-ticket\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0132A73-A4B9-4696-A2D2-C40D5CF0B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B337143-FBD2-4F88-BEA1-928DD0D74700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,11 +251,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -488,12 +488,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
@@ -527,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -561,11 +561,11 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -596,11 +596,11 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -632,11 +632,11 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -663,11 +663,11 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
